--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
       </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100201520201802050300</v>
+        <v>0100201520201802050304</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,12 +527,95 @@
         <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
       </c>
       <c r="F11" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
         <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100201520201802050304</v>
+        <v>010020152020180205030451055213081910100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910100</v>
+        <v>010020152020180205030451055213081910106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,9 +616,92 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>6</v>
+      </c>
+      <c r="C24" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>7</v>
+      </c>
+      <c r="C29" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -676,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106</v>
+        <v>010020152020180205030451055213081910106235151565521150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,10 +698,192 @@
       <c r="C31" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>8</v>
+      </c>
+      <c r="C32" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>9</v>
+      </c>
+      <c r="C34" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>10</v>
+      </c>
+      <c r="C36" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>11</v>
+      </c>
+      <c r="C38" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>12</v>
+      </c>
+      <c r="C40" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>13</v>
+      </c>
+      <c r="C43" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>14</v>
+      </c>
+      <c r="C48" t="str">
+        <v>191_朱小姐_Miss Piggy_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +941,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521150</v>
+        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122280</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -880,6 +880,9 @@
       <c r="C51" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -941,7 +944,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122280</v>
+        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,12 +881,95 @@
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>15</v>
+      </c>
+      <c r="C52" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>16</v>
+      </c>
+      <c r="C56" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F57" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F58" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F59" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -944,7 +1027,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281</v>
+        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -966,6 +966,9 @@
       <c r="A61" t="str">
         <v>17</v>
       </c>
+      <c r="C61" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -969,6 +969,9 @@
       <c r="C61" t="str">
         <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F61" t="str">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1030,7 +1033,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030200</v>
+        <v>01002015202018020503045105521308191010623515156552115153415441043101524172208101321012228108148115040303020190</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -973,9 +973,95 @@
         <v>190</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>18</v>
+      </c>
+      <c r="C62" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>19</v>
+      </c>
+      <c r="C65" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>20</v>
+      </c>
+      <c r="C70" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1033,7 +1119,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01002015202018020503045105521308191010623515156552115153415441043101524172208101321012228108148115040303020190</v>
+        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030201901105030209311015130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -1058,6 +1058,9 @@
       <c r="C71" t="str">
         <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F71" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1119,7 +1122,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030201901105030209311015130</v>
+        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1062,9 +1062,181 @@
         <v>13</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F73" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>21</v>
+      </c>
+      <c r="C74" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>22</v>
+      </c>
+      <c r="C78" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>23</v>
+      </c>
+      <c r="C82" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>24</v>
+      </c>
+      <c r="C84" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>25</v>
+      </c>
+      <c r="C89" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1122,7 +1294,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313</v>
+        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313771223782172023039188133070</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -1231,7 +1231,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -1233,6 +1233,9 @@
       <c r="A91" t="str">
         <v>26</v>
       </c>
+      <c r="C91" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -1236,6 +1236,9 @@
       <c r="C91" t="str">
         <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F91" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1297,7 +1300,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313771223782172023039188133070</v>
+        <v>01002015202018020503045105521308191010623515156552115153415441043101524172208101321012228108148115040303020190110503020931101513137712237821720230391881330730</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1240,9 +1240,95 @@
         <v>30</v>
       </c>
     </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>27</v>
+      </c>
+      <c r="C93" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>28</v>
+      </c>
+      <c r="C96" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F100" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1300,7 +1386,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01002015202018020503045105521308191010623515156552115153415441043101524172208101321012228108148115040303020190110503020931101513137712237821720230391881330730</v>
+        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030201901105030209311015131377122378217202303918813307302040301233540170</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -1325,6 +1325,9 @@
       <c r="C101" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F101" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1386,7 +1389,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010020152020180205030451055213081910106235151565521151534154410431015241722081013210122281081481150403030201901105030209311015131377122378217202303918813307302040301233540170</v>
+        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313771223782172023039188133073020403012335401712</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1329,9 +1329,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>30</v>
+      </c>
+      <c r="C102" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L103"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1389,7 +1408,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0100201520201802050304510552130819101062351515655211515341544104310152417220810132101222810814811504030302019011050302093110151313771223782172023039188133073020403012335401712</v>
+        <v>01002015202018020503045105521308191010623515156552115153415441043101524172208101321012228108148115040303020190110503020931101513137712237821720230391881330730204030123354017121329</v>
       </c>
     </row>
   </sheetData>
